--- a/src/test/resources/Testdata.xlsx
+++ b/src/test/resources/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5295"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +354,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
